--- a/APPdata_MicrotekA22/TemporaryData/Paramete_A22.xlsx
+++ b/APPdata_MicrotekA22/TemporaryData/Paramete_A22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wipro365-my.sharepoint.com/personal/ma80050179_wipro_com/Documents/Documents/GitHub/Microtek_A22/APPdata_MicrotekA22/TemporaryData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wipro365-my.sharepoint.com/personal/ma80050179_wipro_com/Documents/Documents/GitHub/RoboA22/APPdata_RoboA22/TemporaryData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{16FB0536-C1F9-4AA6-AEF7-B466E7112B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{978892C4-2EEB-4663-8BE9-4678AC084096}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{16FB0536-C1F9-4AA6-AEF7-B466E7112B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F42768-ADB5-40F8-A971-9026008BF42B}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9912" xr2:uid="{92725FCE-709B-4DC3-A1B4-8201512BFA22}"/>
   </bookViews>
@@ -20,78 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Plant Name: Wipro Infrastructure (Cylinders) A22 Chennai</t>
   </si>
   <si>
     <t>Disclaimer : The Scheduled reports are for user reference &amp; documentation only. for any corrective action or recommendation please visit DRS portal.</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Monitoring Location</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Total Acceleration Min ((m/s²)²)</t>
-  </si>
-  <si>
-    <t>Total Acceleration Max ((m/s²)²)</t>
-  </si>
-  <si>
-    <t>Total Acceleration Avg ((m/s²)²)</t>
-  </si>
-  <si>
-    <t>Axial Velocity Min (mm/s)</t>
-  </si>
-  <si>
-    <t>Axial Velocity Max (mm/s)</t>
-  </si>
-  <si>
-    <t>Axial Velocity Avg (mm/s)</t>
-  </si>
-  <si>
-    <t>Vertical Velocity Min (mm/s)</t>
-  </si>
-  <si>
-    <t>Vertical Velocity Max (mm/s)</t>
-  </si>
-  <si>
-    <t>Vertical Velocity Avg (mm/s)</t>
-  </si>
-  <si>
-    <t>Horizontal Velocity Min (mm/s)</t>
-  </si>
-  <si>
-    <t>Horizontal Velocity Max (mm/s)</t>
-  </si>
-  <si>
-    <t>Horizontal Velocity Avg (mm/s)</t>
-  </si>
-  <si>
-    <t>Temperature Min (°C)</t>
-  </si>
-  <si>
-    <t>Temperature Max (°C)</t>
-  </si>
-  <si>
-    <t>Temperature Avg (°C)</t>
-  </si>
-  <si>
-    <t>Audio Min (dB)</t>
-  </si>
-  <si>
-    <t>Audio Max (dB)</t>
-  </si>
-  <si>
-    <t>Audio Avg (dB)</t>
   </si>
 </sst>
 </file>
@@ -953,133 +887,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DB3B61-9A1C-4DED-ACCD-5777677DD518}">
-  <dimension ref="A1:V938"/>
+  <dimension ref="A1:D938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
